--- a/اطلاعات پرسنل.xlsx
+++ b/اطلاعات پرسنل.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raffle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.moghadas\Desktop\Raffle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>ردیف</t>
   </si>
@@ -64,6 +64,21 @@
   </si>
   <si>
     <t>شیفت کاری</t>
+  </si>
+  <si>
+    <t>3100471249</t>
+  </si>
+  <si>
+    <t>3378946117</t>
+  </si>
+  <si>
+    <t>8796532154</t>
+  </si>
+  <si>
+    <t>3657420985</t>
+  </si>
+  <si>
+    <t>3935895853</t>
   </si>
 </sst>
 </file>
@@ -453,7 +468,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,8 +526,8 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="5">
-        <v>228</v>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="3"/>
@@ -527,8 +542,8 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="5">
-        <v>229</v>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="3"/>
@@ -543,8 +558,8 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="5">
-        <v>230</v>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3"/>
@@ -559,8 +574,8 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="5">
-        <v>2283735489</v>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="3"/>
@@ -575,8 +590,8 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="5">
-        <v>889765428</v>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="3"/>
@@ -591,8 +606,8 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="5">
-        <v>1125498876</v>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="3"/>
